--- a/Credit Card Loan Verification/container/test.xlsx
+++ b/Credit Card Loan Verification/container/test.xlsx
@@ -843,16 +843,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01902288188002474</v>
+        <v>0.07139146567717997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1145491621597659</v>
+        <v>0.1246859946212726</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3248307952622674</v>
+        <v>0.1877275803722504</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.3445945945945946</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1112677798392084</v>
+        <v>0.03474335188620904</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05709726039542513</v>
+        <v>0.06099831545349765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3633840947546532</v>
+        <v>0.2527072758037225</v>
       </c>
       <c r="E10" t="n">
         <v>0.7297297297297298</v>
@@ -1797,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1014594928880643</v>
+        <v>0.04253555967841682</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001004817211927771</v>
+        <v>0.06404232053669061</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2554991539763113</v>
+        <v>0.1861387478849408</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7252252252252251</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03141620284477428</v>
+        <v>0.05225726654298084</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0599343913467506</v>
+        <v>0.01888465289476017</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2198697123519459</v>
+        <v>0.1313096446700508</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4099099099099099</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2115,19 +2115,19 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08987012987012986</v>
+        <v>0.03333333333333334</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.014215208204037</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2554991539763113</v>
+        <v>0.0954077834179357</v>
       </c>
       <c r="E32" t="n">
         <v>0.7297297297297298</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2165,22 +2165,22 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07144094001236859</v>
+        <v>0.0647247990105133</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.08035582350681207</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2101201353637902</v>
+        <v>0.2528104906937395</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.6441441441441442</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2221,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0416326530612245</v>
+        <v>0.06029684601113173</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1144737732656514</v>
+        <v>0.1591082910321489</v>
       </c>
       <c r="E34" t="n">
         <v>0.7297297297297298</v>
@@ -2486,16 +2486,16 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03239332096474954</v>
+        <v>0.06902906617192331</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.1286461565741644</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09081725888324872</v>
+        <v>0.3367918781725888</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9099099099099099</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2504,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -2592,25 +2592,25 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.050278293135436</v>
+        <v>0.04227581941867656</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03049915772674883</v>
+        <v>0.0215444631616278</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2008189509306261</v>
+        <v>0.1810490693739425</v>
       </c>
       <c r="E41" t="n">
         <v>0.7297297297297298</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -2645,34 +2645,34 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03919604205318492</v>
+        <v>0.04072974644403216</v>
       </c>
       <c r="C42" t="n">
-        <v>0.005940242929337708</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2726463620981388</v>
+        <v>0.1458037225042301</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6869369369369369</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2698,16 +2698,16 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03245516388373532</v>
+        <v>0.03611626468769327</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05248692259952124</v>
+        <v>0.04701953482873777</v>
       </c>
       <c r="D43" t="n">
-        <v>0.197160744500846</v>
+        <v>0.1539763113367174</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5157657657657657</v>
+        <v>0.9864864864864864</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2960,43 +2960,43 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05095856524427954</v>
+        <v>0.01781076066790353</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08984248012530661</v>
+        <v>0.06356946537813636</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2759593908629442</v>
+        <v>0.2667597292724196</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1216216216216216</v>
+        <v>0.6576576576576576</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3225,34 +3225,34 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1647247990105133</v>
+        <v>0.0563265306122449</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05089103643940066</v>
+        <v>0.09802878505777698</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4903265651438241</v>
+        <v>0.3524737732656514</v>
       </c>
       <c r="E53" t="n">
         <v>0.7297297297297298</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -3331,34 +3331,34 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04128633271490415</v>
+        <v>0.04222634508348794</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.01643171675976002</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06689678510998308</v>
+        <v>0.09983587140439933</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.5923423423423424</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3440,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.09172541743970315</v>
+        <v>0.04159554730983303</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02251972692614593</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4453130287648054</v>
+        <v>0.1203451776649746</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -3458,19 +3458,19 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -3596,19 +3596,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1322448979591837</v>
+        <v>0.02703772418058132</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1141058604486213</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6682131979695431</v>
+        <v>0.07103722504230119</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.8085585585585586</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3970,25 +3970,25 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04184291898577613</v>
+        <v>0.03734075448361163</v>
       </c>
       <c r="C67" t="n">
-        <v>0.00620622395602447</v>
+        <v>0.002216508555723025</v>
       </c>
       <c r="D67" t="n">
-        <v>0.200160744500846</v>
+        <v>0.10482910321489</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.7094594594594594</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4391,16 +4391,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02267161410018553</v>
+        <v>0.07059987631416202</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0859414250672341</v>
+        <v>0.03788751957915891</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1762978003384095</v>
+        <v>0.3001404399323181</v>
       </c>
       <c r="E75" t="n">
         <v>0.7297297297297298</v>
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4659,28 +4659,28 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2259863945578231</v>
+        <v>0.04049474335188621</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07941011318970358</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7426412859560068</v>
+        <v>0.1125211505922166</v>
       </c>
       <c r="E80" t="n">
         <v>0.7297297297297298</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -5239,19 +5239,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0.04885590599876315</v>
+        <v>0.03517625231910947</v>
       </c>
       <c r="C91" t="n">
-        <v>0.09247273694476461</v>
+        <v>0.0492360433844608</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3506954314720812</v>
+        <v>0.1539932318104907</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.9977477477477477</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -5260,13 +5260,13 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -5451,19 +5451,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03951762523191095</v>
+        <v>0.05288806431663575</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02210597866241097</v>
+        <v>0.0649880308537991</v>
       </c>
       <c r="D95" t="n">
-        <v>0.199098138747885</v>
+        <v>0.3110135363790186</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5945945945945945</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -5475,19 +5475,19 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5507,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0266295609152752</v>
+        <v>0.04227581941867656</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.05298933120548512</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0738409475465313</v>
+        <v>0.2352284263959391</v>
       </c>
       <c r="E96" t="n">
         <v>0.7297297297297298</v>
@@ -5525,13 +5525,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5557,16 +5557,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03816944959802103</v>
+        <v>0.03551020408163266</v>
       </c>
       <c r="C97" t="n">
-        <v>0.04959068475337648</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2326514382402707</v>
+        <v>0.1063485617597293</v>
       </c>
       <c r="E97" t="n">
         <v>0.7297297297297298</v>
@@ -5578,13 +5578,13 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -5716,31 +5716,31 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B100" t="n">
-        <v>0.07831787260358689</v>
+        <v>0.07328385899814471</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.03460708691668883</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1227749576988156</v>
+        <v>0.333434856175973</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.5292792792792793</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6034,19 +6034,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B106" t="n">
-        <v>0.06539270253555968</v>
+        <v>0.03304885590599876</v>
       </c>
       <c r="C106" t="n">
-        <v>0.05659485178946124</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2990355329949239</v>
+        <v>0.1759729272419628</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8265765765765765</v>
+        <v>0.8288288288288288</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -6246,28 +6246,28 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>0.07061224489795918</v>
+        <v>0.05320964749536179</v>
       </c>
       <c r="C110" t="n">
-        <v>0.006797292904217277</v>
+        <v>0.01185093241126577</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3328324873096447</v>
+        <v>0.1296751269035533</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4752252252252252</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -6567,25 +6567,25 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02765615337043908</v>
+        <v>0.03298701298701299</v>
       </c>
       <c r="C116" t="n">
-        <v>0.04267517805952065</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1572165820642978</v>
+        <v>0.1466108291032149</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9864864864864864</v>
+        <v>0.9031531531531531</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
@@ -6829,19 +6829,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0.03605442176870749</v>
+        <v>0.02789115646258503</v>
       </c>
       <c r="C121" t="n">
-        <v>0.02423382687590507</v>
+        <v>0.01527913231078405</v>
       </c>
       <c r="D121" t="n">
-        <v>0.104072758037225</v>
+        <v>0.1528087986463621</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5292792792792793</v>
+        <v>0.8130630630630631</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -6935,16 +6935,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B123" t="n">
-        <v>0.06376004947433518</v>
+        <v>0.05318491032776747</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01489493749445873</v>
+        <v>0.01232378756982002</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1835380710659898</v>
+        <v>0.2001285956006768</v>
       </c>
       <c r="E123" t="n">
         <v>0.7297297297297298</v>
@@ -6962,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -7044,13 +7044,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2269882498453927</v>
+        <v>0.09202226345083488</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02201731832018205</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7706328257191201</v>
+        <v>0.3124348561759729</v>
       </c>
       <c r="E125" t="n">
         <v>0.7297297297297298</v>
@@ -7062,10 +7062,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -7080,10 +7080,10 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
@@ -7253,16 +7253,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>0.09057513914656772</v>
+        <v>0.07035250463821892</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2895351242722464</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8189593908629441</v>
+        <v>0.2098138747884941</v>
       </c>
       <c r="E129" t="n">
         <v>0.7297297297297298</v>
@@ -7274,22 +7274,22 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -7309,16 +7309,16 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0.03249226963512678</v>
+        <v>0.07814471243042671</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04710819517096669</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1551065989847716</v>
+        <v>0.1599847715736041</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130" t="n">
         <v>1</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="Q130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -7362,28 +7362,28 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.06562770562770563</v>
+        <v>0.02770562770562771</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.02775068711765227</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1625262267343486</v>
+        <v>0.1522842639593909</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.6554054054054055</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -7398,13 +7398,13 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>

--- a/Credit Card Loan Verification/container/test.xlsx
+++ b/Credit Card Loan Verification/container/test.xlsx
@@ -840,19 +840,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07139146567717997</v>
+        <v>0.04730983302411874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1246859946212726</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1877275803722504</v>
+        <v>0.1641285956006768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3445945945945946</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03474335188620904</v>
+        <v>0.08760667903525046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06099831545349765</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2527072758037225</v>
+        <v>0.3516649746192894</v>
       </c>
       <c r="E10" t="n">
         <v>0.7297297297297298</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1794,19 +1794,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04253555967841682</v>
+        <v>0.03961657390228819</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06404232053669061</v>
+        <v>0.0721695185743417</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1861387478849408</v>
+        <v>0.1940812182741117</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.632882882882883</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05225726654298084</v>
+        <v>0.04376004947433519</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01888465289476017</v>
+        <v>0.07273103407512486</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1313096446700508</v>
+        <v>0.2772842639593909</v>
       </c>
       <c r="E28" t="n">
         <v>0.7297297297297298</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1930,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2115,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03333333333333334</v>
+        <v>0.03666048237476809</v>
       </c>
       <c r="C32" t="n">
-        <v>0.014215208204037</v>
+        <v>0.06058456718976268</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0954077834179357</v>
+        <v>0.1607445008460237</v>
       </c>
       <c r="E32" t="n">
         <v>0.7297297297297298</v>
@@ -2133,16 +2133,16 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2168,16 +2168,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0647247990105133</v>
+        <v>0.07035250463821892</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08035582350681207</v>
+        <v>0.04964979164819576</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2528104906937395</v>
+        <v>0.3003891708967851</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6441441441441442</v>
+        <v>0.9774774774774775</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2192,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2221,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06029684601113173</v>
+        <v>0.02755720470006184</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.09321157313000562</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1591082910321489</v>
+        <v>0.2645939086294417</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2486,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06902906617192331</v>
+        <v>0.04213976499690786</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1286461565741644</v>
+        <v>0.06170759819132902</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3367918781725888</v>
+        <v>0.1863908629441625</v>
       </c>
       <c r="E39" t="n">
         <v>0.7297297297297298</v>
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2589,16 +2589,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04227581941867656</v>
+        <v>0.0395299938157081</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0215444631616278</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1810490693739425</v>
+        <v>0.1641285956006768</v>
       </c>
       <c r="E41" t="n">
         <v>0.7297297297297298</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2619,22 +2619,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -2645,22 +2645,22 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04072974644403216</v>
+        <v>0.02920222634508349</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.04102018500458079</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1458037225042301</v>
+        <v>0.1522842639593909</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.6193693693693694</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2672,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -2698,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03611626468769327</v>
+        <v>0.1111688311688312</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04701953482873777</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1539763113367174</v>
+        <v>0.2590219966159052</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9864864864864864</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2960,19 +2960,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01781076066790353</v>
+        <v>0.08011131725417439</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06356946537813636</v>
+        <v>0.01965304252741082</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2667597292724196</v>
+        <v>0.2400118443316413</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6576576576576576</v>
+        <v>0.6463963963963963</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2990,13 +2990,13 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0563265306122449</v>
+        <v>0.04800247371675943</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09802878505777698</v>
+        <v>0.06442651535301593</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3524737732656514</v>
+        <v>0.2951573604060914</v>
       </c>
       <c r="E53" t="n">
         <v>0.7297297297297298</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3334,16 +3334,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04222634508348794</v>
+        <v>0.04709956709956711</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01643171675976002</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09983587140439933</v>
+        <v>0.1641285956006768</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5923423423423424</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -3358,19 +3358,19 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3440,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04159554730983303</v>
+        <v>0.06504638218923933</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.06640659632946183</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1203451776649746</v>
+        <v>0.280253807106599</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09009009009009009</v>
+        <v>0.6509009009009008</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -3458,19 +3458,19 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3599,25 +3599,25 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02703772418058132</v>
+        <v>0.03768707482993198</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07103722504230119</v>
+        <v>0.118663282571912</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8085585585585586</v>
+        <v>0.1261261261261261</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3970,16 +3970,16 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03734075448361163</v>
+        <v>0.03652442795299939</v>
       </c>
       <c r="C67" t="n">
-        <v>0.002216508555723025</v>
+        <v>0.08337027514259539</v>
       </c>
       <c r="D67" t="n">
-        <v>0.10482910321489</v>
+        <v>0.1870016920473773</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7094594594594594</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4391,22 +4391,22 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07059987631416202</v>
+        <v>0.02812615955473098</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03788751957915891</v>
+        <v>0.0437391021662677</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3001404399323181</v>
+        <v>0.1568934010152284</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7297297297297298</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -4424,10 +4424,10 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -4659,16 +4659,16 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04049474335188621</v>
+        <v>0.04737167594310452</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1125211505922166</v>
+        <v>0.1502148900169205</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.7590090090090089</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -4701,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -5239,34 +5239,34 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03517625231910947</v>
+        <v>0.03868893011750155</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0492360433844608</v>
+        <v>0.06416053432632916</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1539932318104907</v>
+        <v>0.2774957698815567</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9977477477477477</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -5451,22 +5451,22 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>0.05288806431663575</v>
+        <v>0.06623376623376623</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0649880308537991</v>
+        <v>0.05576735526199132</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3110135363790186</v>
+        <v>0.2992470389170897</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.8445945945945945</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -5484,10 +5484,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5507,31 +5507,31 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0.04227581941867656</v>
+        <v>0.08888064316635745</v>
       </c>
       <c r="C96" t="n">
-        <v>0.05298933120548512</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2352284263959391</v>
+        <v>0.3143705583756345</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.7094594594594594</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -5540,13 +5540,13 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5560,13 +5560,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03551020408163266</v>
+        <v>0.03821892393320965</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1063485617597293</v>
+        <v>0.1513637901861252</v>
       </c>
       <c r="E97" t="n">
         <v>0.7297297297297298</v>
@@ -5602,10 +5602,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5716,19 +5716,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B100" t="n">
-        <v>0.07328385899814471</v>
+        <v>0.03993815708101423</v>
       </c>
       <c r="C100" t="n">
-        <v>0.03460708691668883</v>
+        <v>0.07462245470934184</v>
       </c>
       <c r="D100" t="n">
-        <v>0.333434856175973</v>
+        <v>0.192756345177665</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5292792792792793</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -5737,13 +5737,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -6034,19 +6034,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>0.03304885590599876</v>
+        <v>0.04979591836734695</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.1222921653810917</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1759729272419628</v>
+        <v>0.2821742808798646</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8288288288288288</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -6249,31 +6249,31 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>0.05320964749536179</v>
+        <v>0.03422387136672851</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01185093241126577</v>
+        <v>0.05559003457753347</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1296751269035533</v>
+        <v>0.1597360406091371</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.8085585585585586</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -6564,34 +6564,34 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B116" t="n">
-        <v>0.03298701298701299</v>
+        <v>0.0243908472479901</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>0.05875225345036499</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1466108291032149</v>
+        <v>0.1743434856175973</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9031531531531531</v>
+        <v>0.4527027027027027</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
@@ -6832,16 +6832,16 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0.02789115646258503</v>
+        <v>0.07572047000618429</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01527913231078405</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1528087986463621</v>
+        <v>0.1618307952622673</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8130630630630631</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -6935,22 +6935,22 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05318491032776747</v>
+        <v>0.1769449598021027</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01232378756982002</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2001285956006768</v>
+        <v>0.4034331641285956</v>
       </c>
       <c r="E123" t="n">
         <v>0.7297297297297298</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
         <v>1</v>
@@ -7041,52 +7041,52 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B125" t="n">
-        <v>0.09202226345083488</v>
+        <v>0.06500927643784786</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>0.05228004846765375</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3124348561759729</v>
+        <v>0.2994957698815567</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
@@ -7253,16 +7253,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B129" t="n">
-        <v>0.07035250463821892</v>
+        <v>0.08768089053803339</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.2318172414812188</v>
       </c>
       <c r="D129" t="n">
-        <v>0.2098138747884941</v>
+        <v>0.7121945854483925</v>
       </c>
       <c r="E129" t="n">
         <v>0.7297297297297298</v>
@@ -7274,16 +7274,16 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -7309,16 +7309,16 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0.07814471243042671</v>
+        <v>0.02868274582560297</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.0423500901380146</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1599847715736041</v>
+        <v>0.156994923857868</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7297297297297298</v>
+        <v>0.9707207207207207</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -7327,10 +7327,10 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
         <v>1</v>
@@ -7362,25 +7362,25 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.02770562770562771</v>
+        <v>0.03369202226345084</v>
       </c>
       <c r="C131" t="n">
-        <v>0.02775068711765227</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1522842639593909</v>
+        <v>0.11065820642978</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6554054054054055</v>
+        <v>0.7297297297297298</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="P131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
